--- a/backtesting/model1/大小盘等权/model1return.xlsx
+++ b/backtesting/model1/大小盘等权/model1return.xlsx
@@ -657,7 +657,7 @@
         <v>44599</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01154329</v>
+        <v>0.015407847</v>
       </c>
       <c r="C20" t="n">
         <v>0.0134755685</v>
@@ -668,7 +668,7 @@
         <v>44600</v>
       </c>
       <c r="B21" t="n">
-        <v>0.015124041</v>
+        <v>-0.005463209</v>
       </c>
       <c r="C21" t="n">
         <v>0.004830416</v>
@@ -679,7 +679,7 @@
         <v>44601</v>
       </c>
       <c r="B22" t="n">
-        <v>0.016142446</v>
+        <v>0.009392522</v>
       </c>
       <c r="C22" t="n">
         <v>0.012767484</v>
@@ -690,7 +690,7 @@
         <v>44602</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.005926461</v>
+        <v>-0.00262215</v>
       </c>
       <c r="C23" t="n">
         <v>-0.004274305500000001</v>
@@ -701,7 +701,7 @@
         <v>44603</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.024734505</v>
+        <v>-0.008290591</v>
       </c>
       <c r="C24" t="n">
         <v>-0.016512548</v>
@@ -712,7 +712,7 @@
         <v>44606</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002987616</v>
+        <v>-0.010802702</v>
       </c>
       <c r="C25" t="n">
         <v>-0.003907543</v>
@@ -723,7 +723,7 @@
         <v>44607</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004719819</v>
+        <v>0.010636648</v>
       </c>
       <c r="C26" t="n">
         <v>0.0076782335</v>
@@ -745,7 +745,7 @@
         <v>44609</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.001191085</v>
+        <v>0.002420014</v>
       </c>
       <c r="C28" t="n">
         <v>0.0006144645</v>
@@ -756,7 +756,7 @@
         <v>44610</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006757572</v>
+        <v>0.004767793</v>
       </c>
       <c r="C29" t="n">
         <v>0.0057626825</v>
@@ -767,7 +767,7 @@
         <v>44613</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017703462</v>
+        <v>-0.003638108</v>
       </c>
       <c r="C30" t="n">
         <v>0.007032676999999999</v>
@@ -877,7 +877,7 @@
         <v>44627</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.013341804</v>
+        <v>-0.031948145</v>
       </c>
       <c r="C40" t="n">
         <v>-0.0226449745</v>
@@ -888,7 +888,7 @@
         <v>44628</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.033670112</v>
+        <v>-0.020076032</v>
       </c>
       <c r="C41" t="n">
         <v>-0.026873072</v>
@@ -899,7 +899,7 @@
         <v>44629</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.010596374</v>
+        <v>-0.009153837999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-0.009875106</v>
@@ -976,7 +976,7 @@
         <v>44638</v>
       </c>
       <c r="B49" t="n">
-        <v>0.011443945</v>
+        <v>0.006656</v>
       </c>
       <c r="C49" t="n">
         <v>0.0090499725</v>
@@ -1185,7 +1185,7 @@
         <v>44669</v>
       </c>
       <c r="B68" t="n">
-        <v>0.008988447</v>
+        <v>-0.00533878</v>
       </c>
       <c r="C68" t="n">
         <v>0.0018248335</v>
@@ -1196,7 +1196,7 @@
         <v>44670</v>
       </c>
       <c r="B69" t="n">
-        <v>0.008391599</v>
+        <v>-0.00755636</v>
       </c>
       <c r="C69" t="n">
         <v>0.0004176194999999999</v>
@@ -1207,7 +1207,7 @@
         <v>44671</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.01109155</v>
+        <v>-0.015505278</v>
       </c>
       <c r="C70" t="n">
         <v>-0.013298414</v>
@@ -1262,7 +1262,7 @@
         <v>44678</v>
       </c>
       <c r="B75" t="n">
-        <v>0.033261482</v>
+        <v>0.029443122</v>
       </c>
       <c r="C75" t="n">
         <v>0.031352302</v>
@@ -1614,7 +1614,7 @@
         <v>44728</v>
       </c>
       <c r="B107" t="n">
-        <v>0.009967771</v>
+        <v>-0.006581339</v>
       </c>
       <c r="C107" t="n">
         <v>0.001693216</v>
@@ -1625,7 +1625,7 @@
         <v>44729</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0059773</v>
+        <v>0.013878152</v>
       </c>
       <c r="C108" t="n">
         <v>0.009927726</v>
@@ -1636,7 +1636,7 @@
         <v>44732</v>
       </c>
       <c r="B109" t="n">
-        <v>0.011938288</v>
+        <v>0.004963606</v>
       </c>
       <c r="C109" t="n">
         <v>0.008450947</v>
@@ -1647,7 +1647,7 @@
         <v>44733</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.005853258</v>
+        <v>-0.001123929</v>
       </c>
       <c r="C110" t="n">
         <v>-0.0034885935</v>
@@ -1746,7 +1746,7 @@
         <v>44746</v>
       </c>
       <c r="B119" t="n">
-        <v>0.006970283</v>
+        <v>0.006562402</v>
       </c>
       <c r="C119" t="n">
         <v>0.0067663425</v>
@@ -1757,7 +1757,7 @@
         <v>44747</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.008610066</v>
+        <v>-0.00144394</v>
       </c>
       <c r="C120" t="n">
         <v>-0.005027003</v>
@@ -1768,7 +1768,7 @@
         <v>44748</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.006755321</v>
+        <v>-0.014604731</v>
       </c>
       <c r="C121" t="n">
         <v>-0.010680026</v>
@@ -1823,7 +1823,7 @@
         <v>44755</v>
       </c>
       <c r="B126" t="n">
-        <v>0.016724474</v>
+        <v>0.001818265</v>
       </c>
       <c r="C126" t="n">
         <v>0.0092713695</v>
@@ -2010,7 +2010,7 @@
         <v>44778</v>
       </c>
       <c r="B143" t="n">
-        <v>0.006907629</v>
+        <v>0.013500891</v>
       </c>
       <c r="C143" t="n">
         <v>0.01020426</v>
@@ -2021,7 +2021,7 @@
         <v>44781</v>
       </c>
       <c r="B144" t="n">
-        <v>0.021436306</v>
+        <v>-0.002125737</v>
       </c>
       <c r="C144" t="n">
         <v>0.0096552845</v>
@@ -2032,7 +2032,7 @@
         <v>44782</v>
       </c>
       <c r="B145" t="n">
-        <v>0.004295934</v>
+        <v>0.001980702</v>
       </c>
       <c r="C145" t="n">
         <v>0.003138318</v>
@@ -2043,7 +2043,7 @@
         <v>44783</v>
       </c>
       <c r="B146" t="n">
-        <v>0.008852766999999999</v>
+        <v>-0.011200708</v>
       </c>
       <c r="C146" t="n">
         <v>-0.0011739705</v>
@@ -2054,7 +2054,7 @@
         <v>44784</v>
       </c>
       <c r="B147" t="n">
-        <v>0.009368362</v>
+        <v>0.020391936</v>
       </c>
       <c r="C147" t="n">
         <v>0.014880149</v>
@@ -2065,7 +2065,7 @@
         <v>44785</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.006122559</v>
+        <v>-0.0005701150000000001</v>
       </c>
       <c r="C148" t="n">
         <v>-0.003346337</v>
@@ -2076,7 +2076,7 @@
         <v>44788</v>
       </c>
       <c r="B149" t="n">
-        <v>0.009360194</v>
+        <v>-0.001305751</v>
       </c>
       <c r="C149" t="n">
         <v>0.004027221500000001</v>
@@ -2087,7 +2087,7 @@
         <v>44789</v>
       </c>
       <c r="B150" t="n">
-        <v>0.012280553</v>
+        <v>-0.001873627</v>
       </c>
       <c r="C150" t="n">
         <v>0.005203463</v>
@@ -2164,7 +2164,7 @@
         <v>44798</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.010101314</v>
+        <v>0.008284328000000001</v>
       </c>
       <c r="C157" t="n">
         <v>-0.0009084929999999998</v>
@@ -2175,7 +2175,7 @@
         <v>44799</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.006709446</v>
+        <v>-0.002112146</v>
       </c>
       <c r="C158" t="n">
         <v>-0.004410796</v>
@@ -2186,7 +2186,7 @@
         <v>44802</v>
       </c>
       <c r="B159" t="n">
-        <v>0.011259051</v>
+        <v>-0.004388265</v>
       </c>
       <c r="C159" t="n">
         <v>0.003435393000000001</v>
@@ -2197,7 +2197,7 @@
         <v>44803</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.009110620999999999</v>
+        <v>-0.003356579</v>
       </c>
       <c r="C160" t="n">
         <v>-0.0062336</v>
@@ -2208,7 +2208,7 @@
         <v>44804</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.036599976</v>
+        <v>0.000747462</v>
       </c>
       <c r="C161" t="n">
         <v>-0.017926257</v>
@@ -2219,7 +2219,7 @@
         <v>44805</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.003598582</v>
+        <v>-0.008605559</v>
       </c>
       <c r="C162" t="n">
         <v>-0.0061020705</v>
@@ -2230,7 +2230,7 @@
         <v>44806</v>
       </c>
       <c r="B163" t="n">
-        <v>0.018191035</v>
+        <v>-0.004977175</v>
       </c>
       <c r="C163" t="n">
         <v>0.00660693</v>
@@ -2241,7 +2241,7 @@
         <v>44809</v>
       </c>
       <c r="B164" t="n">
-        <v>0.004900578</v>
+        <v>-0.002034664</v>
       </c>
       <c r="C164" t="n">
         <v>0.001432957</v>
@@ -2252,7 +2252,7 @@
         <v>44810</v>
       </c>
       <c r="B165" t="n">
-        <v>0.017452596</v>
+        <v>0.009178054</v>
       </c>
       <c r="C165" t="n">
         <v>0.013315325</v>
@@ -2263,7 +2263,7 @@
         <v>44811</v>
       </c>
       <c r="B166" t="n">
-        <v>0.007341354</v>
+        <v>0.000666983</v>
       </c>
       <c r="C166" t="n">
         <v>0.0040041685</v>
@@ -2274,7 +2274,7 @@
         <v>44812</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.012207532</v>
+        <v>-0.004266134</v>
       </c>
       <c r="C167" t="n">
         <v>-0.008236833000000001</v>
@@ -2285,7 +2285,7 @@
         <v>44813</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.006040684</v>
+        <v>0.013894971</v>
       </c>
       <c r="C168" t="n">
         <v>0.003927143500000001</v>
@@ -2296,7 +2296,7 @@
         <v>44817</v>
       </c>
       <c r="B169" t="n">
-        <v>0.001810556</v>
+        <v>0.004232535</v>
       </c>
       <c r="C169" t="n">
         <v>0.0030215455</v>
@@ -2307,7 +2307,7 @@
         <v>44818</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.010429941</v>
+        <v>-0.011129707</v>
       </c>
       <c r="C170" t="n">
         <v>-0.010779824</v>
@@ -2318,7 +2318,7 @@
         <v>44819</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.02994386</v>
+        <v>-0.009406401999999999</v>
       </c>
       <c r="C171" t="n">
         <v>-0.019675131</v>
@@ -2329,7 +2329,7 @@
         <v>44820</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.02311531</v>
+        <v>-0.023450017</v>
       </c>
       <c r="C172" t="n">
         <v>-0.0232826635</v>
@@ -2340,7 +2340,7 @@
         <v>44823</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.01220658</v>
+        <v>-0.001190663</v>
       </c>
       <c r="C173" t="n">
         <v>-0.0066986215</v>
@@ -2351,7 +2351,7 @@
         <v>44824</v>
       </c>
       <c r="B174" t="n">
-        <v>0.020519393</v>
+        <v>0.001231161</v>
       </c>
       <c r="C174" t="n">
         <v>0.010875277</v>
@@ -2362,7 +2362,7 @@
         <v>44825</v>
       </c>
       <c r="B175" t="n">
-        <v>0.002764637</v>
+        <v>-0.007399571</v>
       </c>
       <c r="C175" t="n">
         <v>-0.002317467</v>
@@ -2571,7 +2571,7 @@
         <v>44859</v>
       </c>
       <c r="B194" t="n">
-        <v>0.000398831</v>
+        <v>-0.001629092</v>
       </c>
       <c r="C194" t="n">
         <v>-0.0006151304999999999</v>
@@ -2582,7 +2582,7 @@
         <v>44860</v>
       </c>
       <c r="B195" t="n">
-        <v>0.018888508</v>
+        <v>0.008118228</v>
       </c>
       <c r="C195" t="n">
         <v>0.013503368</v>
@@ -2593,7 +2593,7 @@
         <v>44861</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.006222099</v>
+        <v>-0.007043638</v>
       </c>
       <c r="C196" t="n">
         <v>-0.0066328685</v>
@@ -2604,7 +2604,7 @@
         <v>44862</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.038889747</v>
+        <v>-0.024734706</v>
       </c>
       <c r="C197" t="n">
         <v>-0.0318122265</v>
@@ -2615,7 +2615,7 @@
         <v>44865</v>
       </c>
       <c r="B198" t="n">
-        <v>0.012689596</v>
+        <v>-0.009212952</v>
       </c>
       <c r="C198" t="n">
         <v>0.001738322</v>
@@ -2626,7 +2626,7 @@
         <v>44866</v>
       </c>
       <c r="B199" t="n">
-        <v>0.026332305</v>
+        <v>0.035759591</v>
       </c>
       <c r="C199" t="n">
         <v>0.031045948</v>
@@ -2637,7 +2637,7 @@
         <v>44867</v>
       </c>
       <c r="B200" t="n">
-        <v>0.014275258</v>
+        <v>0.012006005</v>
       </c>
       <c r="C200" t="n">
         <v>0.0131406315</v>
@@ -2648,7 +2648,7 @@
         <v>44868</v>
       </c>
       <c r="B201" t="n">
-        <v>0.006121476</v>
+        <v>-0.008132159999999999</v>
       </c>
       <c r="C201" t="n">
         <v>-0.001005342</v>
@@ -2659,7 +2659,7 @@
         <v>44869</v>
       </c>
       <c r="B202" t="n">
-        <v>0.017478845</v>
+        <v>0.032697747</v>
       </c>
       <c r="C202" t="n">
         <v>0.025088296</v>
@@ -2670,7 +2670,7 @@
         <v>44872</v>
       </c>
       <c r="B203" t="n">
-        <v>0.00758361</v>
+        <v>0.002156125</v>
       </c>
       <c r="C203" t="n">
         <v>0.0048698675</v>
@@ -2681,7 +2681,7 @@
         <v>44873</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.000598001</v>
+        <v>-0.006879459</v>
       </c>
       <c r="C204" t="n">
         <v>-0.00373873</v>
@@ -2692,7 +2692,7 @@
         <v>44874</v>
       </c>
       <c r="B205" t="n">
-        <v>0.002103235</v>
+        <v>-0.009349603</v>
       </c>
       <c r="C205" t="n">
         <v>-0.003623184</v>
@@ -2703,7 +2703,7 @@
         <v>44875</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.004334063</v>
+        <v>-0.007695159</v>
       </c>
       <c r="C206" t="n">
         <v>-0.006014611</v>
@@ -2714,7 +2714,7 @@
         <v>44876</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.000469358</v>
+        <v>0.027878156</v>
       </c>
       <c r="C207" t="n">
         <v>0.013704399</v>
@@ -3099,7 +3099,7 @@
         <v>44925</v>
       </c>
       <c r="B242" t="n">
-        <v>0.008407589</v>
+        <v>0.003871988</v>
       </c>
       <c r="C242" t="n">
         <v>0.0061397885</v>
@@ -3286,7 +3286,7 @@
         <v>44958</v>
       </c>
       <c r="B259" t="n">
-        <v>0.009400225</v>
+        <v>0.018137119</v>
       </c>
       <c r="C259" t="n">
         <v>0.013768672</v>
@@ -3297,7 +3297,7 @@
         <v>44959</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.003523388</v>
+        <v>0.002943476</v>
       </c>
       <c r="C260" t="n">
         <v>-0.0002899560000000001</v>
@@ -3308,7 +3308,7 @@
         <v>44960</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.009451325</v>
+        <v>0.000749722</v>
       </c>
       <c r="C261" t="n">
         <v>-0.0043508015</v>
@@ -3319,7 +3319,7 @@
         <v>44963</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.013220393</v>
+        <v>0.000337803</v>
       </c>
       <c r="C262" t="n">
         <v>-0.006441295000000001</v>
@@ -3330,7 +3330,7 @@
         <v>44964</v>
       </c>
       <c r="B263" t="n">
-        <v>0.001799809</v>
+        <v>0.00882252</v>
       </c>
       <c r="C263" t="n">
         <v>0.0053111645</v>
@@ -3341,7 +3341,7 @@
         <v>44965</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.004418996</v>
+        <v>-0.004333576</v>
       </c>
       <c r="C264" t="n">
         <v>-0.004376286</v>
@@ -3352,7 +3352,7 @@
         <v>44966</v>
       </c>
       <c r="B265" t="n">
-        <v>0.013423333</v>
+        <v>0.012371856</v>
       </c>
       <c r="C265" t="n">
         <v>0.0128975945</v>
@@ -3462,7 +3462,7 @@
         <v>44980</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.000804563</v>
+        <v>-0.00253622</v>
       </c>
       <c r="C275" t="n">
         <v>-0.0016703915</v>
@@ -3473,7 +3473,7 @@
         <v>44981</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.010381158</v>
+        <v>-0.002006859</v>
       </c>
       <c r="C276" t="n">
         <v>-0.0061940085</v>
@@ -3484,7 +3484,7 @@
         <v>44984</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.004235682</v>
+        <v>-0.009014741999999999</v>
       </c>
       <c r="C277" t="n">
         <v>-0.006625212</v>
@@ -3495,7 +3495,7 @@
         <v>44985</v>
       </c>
       <c r="B278" t="n">
-        <v>0.006334146</v>
+        <v>0.009660109</v>
       </c>
       <c r="C278" t="n">
         <v>0.007997127499999999</v>
@@ -3506,7 +3506,7 @@
         <v>44986</v>
       </c>
       <c r="B279" t="n">
-        <v>0.014125417</v>
+        <v>0.009133845</v>
       </c>
       <c r="C279" t="n">
         <v>0.011629631</v>
@@ -3605,7 +3605,7 @@
         <v>44999</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.005984604</v>
+        <v>-0.014515473</v>
       </c>
       <c r="C288" t="n">
         <v>-0.0102500385</v>
@@ -3616,7 +3616,7 @@
         <v>45000</v>
       </c>
       <c r="B289" t="n">
-        <v>0.000553719</v>
+        <v>0.009165604000000001</v>
       </c>
       <c r="C289" t="n">
         <v>0.0048596615</v>
@@ -3627,7 +3627,7 @@
         <v>45001</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.011977094</v>
+        <v>-0.01753843</v>
       </c>
       <c r="C290" t="n">
         <v>-0.014757762</v>
@@ -3649,7 +3649,7 @@
         <v>45005</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.004986941</v>
+        <v>-0.002330716</v>
       </c>
       <c r="C292" t="n">
         <v>-0.0036588285</v>
@@ -3660,7 +3660,7 @@
         <v>45006</v>
       </c>
       <c r="B293" t="n">
-        <v>0.010992727</v>
+        <v>0.016666968</v>
       </c>
       <c r="C293" t="n">
         <v>0.0138298475</v>
@@ -4034,7 +4034,7 @@
         <v>45058</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.011585552</v>
+        <v>-0.013256316</v>
       </c>
       <c r="C327" t="n">
         <v>-0.012420934</v>
@@ -4045,7 +4045,7 @@
         <v>45061</v>
       </c>
       <c r="B328" t="n">
-        <v>0.008078568</v>
+        <v>0.015522776</v>
       </c>
       <c r="C328" t="n">
         <v>0.011800672</v>
@@ -4529,7 +4529,7 @@
         <v>45125</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.003163963</v>
+        <v>-0.001679517</v>
       </c>
       <c r="C372" t="n">
         <v>-0.00242174</v>
@@ -4540,7 +4540,7 @@
         <v>45126</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.001056567</v>
+        <v>-0.002277287</v>
       </c>
       <c r="C373" t="n">
         <v>-0.001666927</v>
@@ -4595,7 +4595,7 @@
         <v>45133</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.009055439</v>
+        <v>-0.002069543</v>
       </c>
       <c r="C378" t="n">
         <v>-0.005562491</v>
@@ -5013,7 +5013,7 @@
         <v>45187</v>
       </c>
       <c r="B416" t="n">
-        <v>0.005105295</v>
+        <v>0.006005682</v>
       </c>
       <c r="C416" t="n">
         <v>0.005555488500000001</v>
@@ -5024,7 +5024,7 @@
         <v>45188</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.001933868</v>
+        <v>-0.012850717</v>
       </c>
       <c r="C417" t="n">
         <v>-0.0073922925</v>
@@ -5057,7 +5057,7 @@
         <v>45191</v>
       </c>
       <c r="B420" t="n">
-        <v>0.018104534</v>
+        <v>0.021916112</v>
       </c>
       <c r="C420" t="n">
         <v>0.020010323</v>
@@ -5310,7 +5310,7 @@
         <v>45232</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.004715142</v>
+        <v>-0.011246804</v>
       </c>
       <c r="C443" t="n">
         <v>-0.007980972999999999</v>
@@ -5321,7 +5321,7 @@
         <v>45233</v>
       </c>
       <c r="B444" t="n">
-        <v>0.008425973</v>
+        <v>0.013042471</v>
       </c>
       <c r="C444" t="n">
         <v>0.010734222</v>
@@ -5332,7 +5332,7 @@
         <v>45236</v>
       </c>
       <c r="B445" t="n">
-        <v>0.013524039</v>
+        <v>0.02412325</v>
       </c>
       <c r="C445" t="n">
         <v>0.0188236445</v>
@@ -5343,7 +5343,7 @@
         <v>45237</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.003537155</v>
+        <v>0.009631865999999999</v>
       </c>
       <c r="C446" t="n">
         <v>0.0030473555</v>
@@ -5354,7 +5354,7 @@
         <v>45238</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.002399883</v>
+        <v>0.004917079</v>
       </c>
       <c r="C447" t="n">
         <v>0.001258598</v>
@@ -5497,7 +5497,7 @@
         <v>45257</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.007367506</v>
+        <v>0.000740609</v>
       </c>
       <c r="C460" t="n">
         <v>-0.0033134485</v>
@@ -5508,7 +5508,7 @@
         <v>45258</v>
       </c>
       <c r="B461" t="n">
-        <v>0.001873835</v>
+        <v>0.007147135</v>
       </c>
       <c r="C461" t="n">
         <v>0.004510485</v>
@@ -5519,7 +5519,7 @@
         <v>45259</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.008587665</v>
+        <v>-0.005184525</v>
       </c>
       <c r="C462" t="n">
         <v>-0.006886095</v>
@@ -5530,7 +5530,7 @@
         <v>45260</v>
       </c>
       <c r="B463" t="n">
-        <v>0.002263419</v>
+        <v>-0.006151045</v>
       </c>
       <c r="C463" t="n">
         <v>-0.001943813</v>
@@ -5541,7 +5541,7 @@
         <v>45261</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.003810277</v>
+        <v>0.009692628999999999</v>
       </c>
       <c r="C464" t="n">
         <v>0.002941176</v>
@@ -5552,7 +5552,7 @@
         <v>45264</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.006530024</v>
+        <v>0.001569873</v>
       </c>
       <c r="C465" t="n">
         <v>-0.0024800755</v>
@@ -5563,7 +5563,7 @@
         <v>45265</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.019039963</v>
+        <v>-0.018860654</v>
       </c>
       <c r="C466" t="n">
         <v>-0.0189503085</v>
@@ -5574,7 +5574,7 @@
         <v>45266</v>
       </c>
       <c r="B467" t="n">
-        <v>0.005011684</v>
+        <v>0.001573511</v>
       </c>
       <c r="C467" t="n">
         <v>0.0032925975</v>
@@ -5585,7 +5585,7 @@
         <v>45267</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.00302078</v>
+        <v>-0.002446083</v>
       </c>
       <c r="C468" t="n">
         <v>-0.0027334315</v>
@@ -5596,7 +5596,7 @@
         <v>45268</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.010188283</v>
+        <v>0.00241192</v>
       </c>
       <c r="C469" t="n">
         <v>-0.0038881815</v>
@@ -5662,7 +5662,7 @@
         <v>45278</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.003646809</v>
+        <v>-0.014148017</v>
       </c>
       <c r="C475" t="n">
         <v>-0.008897413</v>
@@ -5750,7 +5750,7 @@
         <v>45288</v>
       </c>
       <c r="B483" t="n">
-        <v>0.016779643</v>
+        <v>0.023433672</v>
       </c>
       <c r="C483" t="n">
         <v>0.0201066575</v>
@@ -5761,7 +5761,7 @@
         <v>45289</v>
       </c>
       <c r="B484" t="n">
-        <v>0.019349001</v>
+        <v>0.004852659</v>
       </c>
       <c r="C484" t="n">
         <v>0.01210083</v>
@@ -5915,7 +5915,7 @@
         <v>45310</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.001512278</v>
+        <v>-0.014686354</v>
       </c>
       <c r="C498" t="n">
         <v>-0.008099316000000001</v>
@@ -6179,7 +6179,7 @@
         <v>45352</v>
       </c>
       <c r="B522" t="n">
-        <v>0.015307497</v>
+        <v>0.006177671</v>
       </c>
       <c r="C522" t="n">
         <v>0.010742584</v>
@@ -6234,7 +6234,7 @@
         <v>45359</v>
       </c>
       <c r="B527" t="n">
-        <v>0.012953285</v>
+        <v>0.004303571</v>
       </c>
       <c r="C527" t="n">
         <v>0.008628428</v>
@@ -6289,7 +6289,7 @@
         <v>45366</v>
       </c>
       <c r="B532" t="n">
-        <v>0.00218125</v>
+        <v>0.014016757</v>
       </c>
       <c r="C532" t="n">
         <v>0.0080990035</v>
@@ -6399,7 +6399,7 @@
         <v>45380</v>
       </c>
       <c r="B542" t="n">
-        <v>0.004691754</v>
+        <v>0.013074368</v>
       </c>
       <c r="C542" t="n">
         <v>0.008883060999999999</v>
@@ -6410,7 +6410,7 @@
         <v>45383</v>
       </c>
       <c r="B543" t="n">
-        <v>0.016441713</v>
+        <v>0.020532188</v>
       </c>
       <c r="C543" t="n">
         <v>0.0184869505</v>
@@ -6454,7 +6454,7 @@
         <v>45391</v>
       </c>
       <c r="B547" t="n">
-        <v>0.013624573</v>
+        <v>-0.000825866</v>
       </c>
       <c r="C547" t="n">
         <v>0.0063993535</v>
@@ -6465,7 +6465,7 @@
         <v>45392</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.023377651</v>
+        <v>-0.008144504</v>
       </c>
       <c r="C548" t="n">
         <v>-0.0157610775</v>
@@ -6476,7 +6476,7 @@
         <v>45393</v>
       </c>
       <c r="B549" t="n">
-        <v>0.002252782</v>
+        <v>-0.000132365</v>
       </c>
       <c r="C549" t="n">
         <v>0.0010602085</v>
@@ -6542,7 +6542,7 @@
         <v>45401</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.007882762999999999</v>
+        <v>-0.004053497</v>
       </c>
       <c r="C555" t="n">
         <v>-0.005968129999999999</v>
@@ -6630,7 +6630,7 @@
         <v>45418</v>
       </c>
       <c r="B563" t="n">
-        <v>0.01483811</v>
+        <v>0.020481984</v>
       </c>
       <c r="C563" t="n">
         <v>0.017660047</v>
@@ -6641,7 +6641,7 @@
         <v>45419</v>
       </c>
       <c r="B564" t="n">
-        <v>0.000309168</v>
+        <v>0.006457557</v>
       </c>
       <c r="C564" t="n">
         <v>0.0033833625</v>
@@ -6652,7 +6652,7 @@
         <v>45420</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.007866695999999999</v>
+        <v>-0.01329042</v>
       </c>
       <c r="C565" t="n">
         <v>-0.010578558</v>
@@ -6663,7 +6663,7 @@
         <v>45421</v>
       </c>
       <c r="B566" t="n">
-        <v>0.00945884</v>
+        <v>0.01165212</v>
       </c>
       <c r="C566" t="n">
         <v>0.01055548</v>
@@ -6674,7 +6674,7 @@
         <v>45422</v>
       </c>
       <c r="B567" t="n">
-        <v>0.000468296</v>
+        <v>-0.011246046</v>
       </c>
       <c r="C567" t="n">
         <v>-0.005388875</v>
@@ -6927,7 +6927,7 @@
         <v>45456</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.004778501</v>
+        <v>-0.005076546</v>
       </c>
       <c r="C590" t="n">
         <v>-0.0049275235</v>
@@ -7158,7 +7158,7 @@
         <v>45485</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.005108932</v>
+        <v>0.001220356</v>
       </c>
       <c r="C611" t="n">
         <v>-0.001944288</v>
@@ -7246,7 +7246,7 @@
         <v>45497</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.017048399</v>
+        <v>-0.006311736</v>
       </c>
       <c r="C619" t="n">
         <v>-0.0116800675</v>
@@ -7257,7 +7257,7 @@
         <v>45498</v>
       </c>
       <c r="B620" t="n">
-        <v>0.004076214</v>
+        <v>-0.00552773</v>
       </c>
       <c r="C620" t="n">
         <v>-0.000725758</v>
@@ -7268,7 +7268,7 @@
         <v>45499</v>
       </c>
       <c r="B621" t="n">
-        <v>0.018968053</v>
+        <v>0.002948132</v>
       </c>
       <c r="C621" t="n">
         <v>0.0109580925</v>
@@ -7279,7 +7279,7 @@
         <v>45502</v>
       </c>
       <c r="B622" t="n">
-        <v>0.004655051</v>
+        <v>-0.005441333</v>
       </c>
       <c r="C622" t="n">
         <v>-0.0003931409999999996</v>
@@ -7290,7 +7290,7 @@
         <v>45503</v>
       </c>
       <c r="B623" t="n">
-        <v>0.007109658</v>
+        <v>-0.006299477</v>
       </c>
       <c r="C623" t="n">
         <v>0.0004050904999999996</v>
@@ -7301,7 +7301,7 @@
         <v>45504</v>
       </c>
       <c r="B624" t="n">
-        <v>0.034633474</v>
+        <v>0.021577339</v>
       </c>
       <c r="C624" t="n">
         <v>0.0281054065</v>
@@ -7312,7 +7312,7 @@
         <v>45505</v>
       </c>
       <c r="B625" t="n">
-        <v>0.003142696</v>
+        <v>-0.006629065</v>
       </c>
       <c r="C625" t="n">
         <v>-0.0017431845</v>
@@ -7323,7 +7323,7 @@
         <v>45506</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.013376829</v>
+        <v>-0.010199468</v>
       </c>
       <c r="C626" t="n">
         <v>-0.0117881485</v>
@@ -7433,7 +7433,7 @@
         <v>45520</v>
       </c>
       <c r="B636" t="n">
-        <v>0.001101452</v>
+        <v>-0.002023721</v>
       </c>
       <c r="C636" t="n">
         <v>-0.0004611345</v>
@@ -7477,7 +7477,7 @@
         <v>45526</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.00255877</v>
+        <v>-0.01760979</v>
       </c>
       <c r="C640" t="n">
         <v>-0.01008428</v>
@@ -7488,7 +7488,7 @@
         <v>45527</v>
       </c>
       <c r="B641" t="n">
-        <v>0.004242144</v>
+        <v>-0.005204224</v>
       </c>
       <c r="C641" t="n">
         <v>-0.0004810400000000003</v>
@@ -7642,7 +7642,7 @@
         <v>45547</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.001334379</v>
+        <v>-0.004285827</v>
       </c>
       <c r="C655" t="n">
         <v>-0.002810103</v>
@@ -7653,7 +7653,7 @@
         <v>45548</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.015081292</v>
+        <v>-0.004169521</v>
       </c>
       <c r="C656" t="n">
         <v>-0.009625406499999999</v>
@@ -7697,7 +7697,7 @@
         <v>45558</v>
       </c>
       <c r="B660" t="n">
-        <v>0.003659487</v>
+        <v>0.003539662</v>
       </c>
       <c r="C660" t="n">
         <v>0.0035995745</v>
@@ -7939,7 +7939,7 @@
         <v>45603</v>
       </c>
       <c r="B682" t="n">
-        <v>0.030169871</v>
+        <v>0.023364145</v>
       </c>
       <c r="C682" t="n">
         <v>0.026767008</v>
@@ -7950,7 +7950,7 @@
         <v>45604</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.010046132</v>
+        <v>0.003669034</v>
       </c>
       <c r="C683" t="n">
         <v>-0.003188549</v>
@@ -7961,7 +7961,7 @@
         <v>45607</v>
       </c>
       <c r="B684" t="n">
-        <v>0.006599388</v>
+        <v>0.022347888</v>
       </c>
       <c r="C684" t="n">
         <v>0.014473638</v>
@@ -8016,7 +8016,7 @@
         <v>45614</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.029530019</v>
+        <v>-0.004648775</v>
       </c>
       <c r="C689" t="n">
         <v>-0.017089397</v>
@@ -8082,7 +8082,7 @@
         <v>45622</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.012554478</v>
+        <v>-0.002054577</v>
       </c>
       <c r="C695" t="n">
         <v>-0.0073045275</v>
@@ -8159,7 +8159,7 @@
         <v>45631</v>
       </c>
       <c r="B702" t="n">
-        <v>0.017034949</v>
+        <v>-0.002281789</v>
       </c>
       <c r="C702" t="n">
         <v>0.007376580000000001</v>
@@ -8225,7 +8225,7 @@
         <v>45639</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.023662377</v>
+        <v>-0.015755068</v>
       </c>
       <c r="C708" t="n">
         <v>-0.0197087225</v>
@@ -8236,7 +8236,7 @@
         <v>45642</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.005425431</v>
+        <v>-0.007396535</v>
       </c>
       <c r="C709" t="n">
         <v>-0.006410983</v>
@@ -8247,7 +8247,7 @@
         <v>45643</v>
       </c>
       <c r="B710" t="n">
-        <v>0.002605371</v>
+        <v>-0.044198116</v>
       </c>
       <c r="C710" t="n">
         <v>-0.0207963725</v>
@@ -8313,7 +8313,7 @@
         <v>45651</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.023305961</v>
+        <v>0.000487212</v>
       </c>
       <c r="C716" t="n">
         <v>-0.0114093745</v>
@@ -8357,7 +8357,7 @@
         <v>45657</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.01603979</v>
+        <v>-0.029397814</v>
       </c>
       <c r="C720" t="n">
         <v>-0.022718802</v>
@@ -8423,7 +8423,7 @@
         <v>45666</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.002464363</v>
+        <v>0.005411965</v>
       </c>
       <c r="C726" t="n">
         <v>0.001473801</v>
@@ -8434,7 +8434,7 @@
         <v>45667</v>
       </c>
       <c r="B727" t="n">
-        <v>-0.012539217</v>
+        <v>-0.030473492</v>
       </c>
       <c r="C727" t="n">
         <v>-0.0215063545</v>
@@ -8610,7 +8610,7 @@
         <v>45699</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.002848287</v>
+        <v>-0.004595313</v>
       </c>
       <c r="C743" t="n">
         <v>-0.0037218</v>
@@ -8621,7 +8621,7 @@
         <v>45700</v>
       </c>
       <c r="B744" t="n">
-        <v>0.013091009</v>
+        <v>0.00945795</v>
       </c>
       <c r="C744" t="n">
         <v>0.0112744795</v>
@@ -8709,7 +8709,7 @@
         <v>45712</v>
       </c>
       <c r="B752" t="n">
-        <v>0.001799806</v>
+        <v>-0.002193596</v>
       </c>
       <c r="C752" t="n">
         <v>-0.000196895</v>
@@ -8720,7 +8720,7 @@
         <v>45713</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.00103059</v>
+        <v>-0.011100641</v>
       </c>
       <c r="C753" t="n">
         <v>-0.0060656155</v>
@@ -8731,7 +8731,7 @@
         <v>45714</v>
       </c>
       <c r="B754" t="n">
-        <v>0.015829535</v>
+        <v>0.008735062</v>
       </c>
       <c r="C754" t="n">
         <v>0.0122822985</v>
@@ -8742,7 +8742,7 @@
         <v>45715</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.002950682</v>
+        <v>0.002064324</v>
       </c>
       <c r="C755" t="n">
         <v>-0.0004431789999999999</v>
@@ -8786,7 +8786,7 @@
         <v>45721</v>
       </c>
       <c r="B759" t="n">
-        <v>0.004465589</v>
+        <v>0.007325909</v>
       </c>
       <c r="C759" t="n">
         <v>0.005895749</v>
@@ -8797,7 +8797,7 @@
         <v>45722</v>
       </c>
       <c r="B760" t="n">
-        <v>0.013751526</v>
+        <v>0.020611235</v>
       </c>
       <c r="C760" t="n">
         <v>0.0171813805</v>
@@ -8808,7 +8808,7 @@
         <v>45723</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.003089451</v>
+        <v>-0.005782212</v>
       </c>
       <c r="C761" t="n">
         <v>-0.0044358315</v>
@@ -8819,7 +8819,7 @@
         <v>45726</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.003857111</v>
+        <v>0.003914842</v>
       </c>
       <c r="C762" t="n">
         <v>2.886550000000005e-05</v>
@@ -8830,7 +8830,7 @@
         <v>45727</v>
       </c>
       <c r="B763" t="n">
-        <v>0.003210623</v>
+        <v>0.002902758</v>
       </c>
       <c r="C763" t="n">
         <v>0.0030566905</v>
@@ -8852,7 +8852,7 @@
         <v>45729</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.018390079</v>
+        <v>-0.003985556</v>
       </c>
       <c r="C765" t="n">
         <v>-0.0111878175</v>
@@ -8863,7 +8863,7 @@
         <v>45730</v>
       </c>
       <c r="B766" t="n">
-        <v>0.017951154</v>
+        <v>0.024281088</v>
       </c>
       <c r="C766" t="n">
         <v>0.021116121</v>
@@ -8874,7 +8874,7 @@
         <v>45733</v>
       </c>
       <c r="B767" t="n">
-        <v>0.007798722</v>
+        <v>-0.002438278</v>
       </c>
       <c r="C767" t="n">
         <v>0.002680222</v>
@@ -9083,7 +9083,7 @@
         <v>45761</v>
       </c>
       <c r="B786" t="n">
-        <v>0.002299816</v>
+        <v>0.021819818</v>
       </c>
       <c r="C786" t="n">
         <v>0.012059817</v>
@@ -9094,7 +9094,7 @@
         <v>45762</v>
       </c>
       <c r="B787" t="n">
-        <v>0.00055667</v>
+        <v>-0.00049717</v>
       </c>
       <c r="C787" t="n">
         <v>2.974999999999999e-05</v>
@@ -9149,7 +9149,7 @@
         <v>45769</v>
       </c>
       <c r="B792" t="n">
-        <v>-0.000151451</v>
+        <v>-0.000245292</v>
       </c>
       <c r="C792" t="n">
         <v>-0.0001983715</v>
@@ -9182,7 +9182,7 @@
         <v>45772</v>
       </c>
       <c r="B795" t="n">
-        <v>0.0028713109999999</v>
+        <v>0.0006966308</v>
       </c>
       <c r="C795" t="n">
         <v>0.00178397089999995</v>

--- a/backtesting/model1/大小盘等权/model1return.xlsx
+++ b/backtesting/model1/大小盘等权/model1return.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,7 +734,7 @@
         <v>44608</v>
       </c>
       <c r="B27" t="n">
-        <v>0.014979751</v>
+        <v>0.003888348</v>
       </c>
       <c r="C27" t="n">
         <v>0.0094340495</v>
@@ -910,7 +910,7 @@
         <v>44630</v>
       </c>
       <c r="B43" t="n">
-        <v>0.019387352</v>
+        <v>0.015732525</v>
       </c>
       <c r="C43" t="n">
         <v>0.0175599385</v>
@@ -921,7 +921,7 @@
         <v>44631</v>
       </c>
       <c r="B44" t="n">
-        <v>0.006714526</v>
+        <v>0.003187705</v>
       </c>
       <c r="C44" t="n">
         <v>0.0049511155</v>
@@ -932,7 +932,7 @@
         <v>44634</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.028415949</v>
+        <v>-0.030596386</v>
       </c>
       <c r="C45" t="n">
         <v>-0.0295061675</v>
@@ -943,7 +943,7 @@
         <v>44635</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.048493551</v>
+        <v>-0.045738152</v>
       </c>
       <c r="C46" t="n">
         <v>-0.0471158515</v>
@@ -976,7 +976,7 @@
         <v>44638</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006656</v>
+        <v>0.011443945</v>
       </c>
       <c r="C49" t="n">
         <v>0.0090499725</v>
@@ -1218,7 +1218,7 @@
         <v>44672</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.043077597</v>
+        <v>-0.018413851</v>
       </c>
       <c r="C71" t="n">
         <v>-0.030745724</v>
@@ -1229,7 +1229,7 @@
         <v>44673</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.014737117</v>
+        <v>0.004359495</v>
       </c>
       <c r="C72" t="n">
         <v>-0.005188811</v>
@@ -1240,7 +1240,7 @@
         <v>44676</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.079868656</v>
+        <v>-0.049420572</v>
       </c>
       <c r="C73" t="n">
         <v>-0.064644614</v>
@@ -1251,7 +1251,7 @@
         <v>44677</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.039236765</v>
+        <v>-0.008071718</v>
       </c>
       <c r="C74" t="n">
         <v>-0.0236542415</v>
@@ -1614,7 +1614,7 @@
         <v>44728</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.006581339</v>
+        <v>0.009967771</v>
       </c>
       <c r="C107" t="n">
         <v>0.001693216</v>
@@ -1625,7 +1625,7 @@
         <v>44729</v>
       </c>
       <c r="B108" t="n">
-        <v>0.013878152</v>
+        <v>0.0059773</v>
       </c>
       <c r="C108" t="n">
         <v>0.009927726</v>
@@ -1636,7 +1636,7 @@
         <v>44732</v>
       </c>
       <c r="B109" t="n">
-        <v>0.004963606</v>
+        <v>0.011938288</v>
       </c>
       <c r="C109" t="n">
         <v>0.008450947</v>
@@ -1647,7 +1647,7 @@
         <v>44733</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.001123929</v>
+        <v>-0.005853258</v>
       </c>
       <c r="C110" t="n">
         <v>-0.0034885935</v>
@@ -1746,7 +1746,7 @@
         <v>44746</v>
       </c>
       <c r="B119" t="n">
-        <v>0.006562402</v>
+        <v>0.006970283</v>
       </c>
       <c r="C119" t="n">
         <v>0.0067663425</v>
@@ -1757,7 +1757,7 @@
         <v>44747</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.00144394</v>
+        <v>-0.008610066</v>
       </c>
       <c r="C120" t="n">
         <v>-0.005027003</v>
@@ -1768,7 +1768,7 @@
         <v>44748</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.014604731</v>
+        <v>-0.006755321</v>
       </c>
       <c r="C121" t="n">
         <v>-0.010680026</v>
@@ -1779,7 +1779,7 @@
         <v>44749</v>
       </c>
       <c r="B122" t="n">
-        <v>0.004408665</v>
+        <v>0.00958377</v>
       </c>
       <c r="C122" t="n">
         <v>0.0069962175</v>
@@ -1790,7 +1790,7 @@
         <v>44750</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.003306557</v>
+        <v>0.000498988</v>
       </c>
       <c r="C123" t="n">
         <v>-0.0014037845</v>
@@ -1801,7 +1801,7 @@
         <v>44753</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.016745985</v>
+        <v>-0.005650408</v>
       </c>
       <c r="C124" t="n">
         <v>-0.0111981965</v>
@@ -1812,7 +1812,7 @@
         <v>44754</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.009414904</v>
+        <v>-0.017647353</v>
       </c>
       <c r="C125" t="n">
         <v>-0.0135311285</v>
@@ -1823,7 +1823,7 @@
         <v>44755</v>
       </c>
       <c r="B126" t="n">
-        <v>0.001818265</v>
+        <v>0.016724474</v>
       </c>
       <c r="C126" t="n">
         <v>0.0092713695</v>
@@ -1955,7 +1955,7 @@
         <v>44771</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.013150898</v>
+        <v>-0.002166464</v>
       </c>
       <c r="C138" t="n">
         <v>-0.007658681</v>
@@ -1966,7 +1966,7 @@
         <v>44774</v>
       </c>
       <c r="B139" t="n">
-        <v>0.004454687</v>
+        <v>0.005769285</v>
       </c>
       <c r="C139" t="n">
         <v>0.005111986</v>
@@ -1977,7 +1977,7 @@
         <v>44775</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.019494072</v>
+        <v>-0.043054933</v>
       </c>
       <c r="C140" t="n">
         <v>-0.0312745025</v>
@@ -1988,7 +1988,7 @@
         <v>44776</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.009751246</v>
+        <v>-0.007565158</v>
       </c>
       <c r="C141" t="n">
         <v>-0.008658202</v>
@@ -1999,7 +1999,7 @@
         <v>44777</v>
       </c>
       <c r="B142" t="n">
-        <v>0.008498034999999999</v>
+        <v>0.015471478</v>
       </c>
       <c r="C142" t="n">
         <v>0.0119847565</v>
@@ -2010,7 +2010,7 @@
         <v>44778</v>
       </c>
       <c r="B143" t="n">
-        <v>0.013500891</v>
+        <v>0.006907629</v>
       </c>
       <c r="C143" t="n">
         <v>0.01020426</v>
@@ -2021,7 +2021,7 @@
         <v>44781</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.002125737</v>
+        <v>0.021436306</v>
       </c>
       <c r="C144" t="n">
         <v>0.0096552845</v>
@@ -2032,7 +2032,7 @@
         <v>44782</v>
       </c>
       <c r="B145" t="n">
-        <v>0.001980702</v>
+        <v>0.004295934</v>
       </c>
       <c r="C145" t="n">
         <v>0.003138318</v>
@@ -2043,7 +2043,7 @@
         <v>44783</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.011200708</v>
+        <v>0.008852766999999999</v>
       </c>
       <c r="C146" t="n">
         <v>-0.0011739705</v>
@@ -2054,7 +2054,7 @@
         <v>44784</v>
       </c>
       <c r="B147" t="n">
-        <v>0.020391936</v>
+        <v>0.009368362</v>
       </c>
       <c r="C147" t="n">
         <v>0.014880149</v>
@@ -2065,7 +2065,7 @@
         <v>44785</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.0005701150000000001</v>
+        <v>-0.006122559</v>
       </c>
       <c r="C148" t="n">
         <v>-0.003346337</v>
@@ -2076,7 +2076,7 @@
         <v>44788</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.001305751</v>
+        <v>0.009360194</v>
       </c>
       <c r="C149" t="n">
         <v>0.004027221500000001</v>
@@ -2087,7 +2087,7 @@
         <v>44789</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.001873627</v>
+        <v>0.012280553</v>
       </c>
       <c r="C150" t="n">
         <v>0.005203463</v>
@@ -2098,7 +2098,7 @@
         <v>44790</v>
       </c>
       <c r="B151" t="n">
-        <v>0.00936408</v>
+        <v>0.000466077</v>
       </c>
       <c r="C151" t="n">
         <v>0.0049150785</v>
@@ -2109,7 +2109,7 @@
         <v>44791</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.008740660000000001</v>
+        <v>0.007269787</v>
       </c>
       <c r="C152" t="n">
         <v>-0.0007354365000000005</v>
@@ -2120,7 +2120,7 @@
         <v>44792</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.006943806</v>
+        <v>-0.017469347</v>
       </c>
       <c r="C153" t="n">
         <v>-0.0122065765</v>
@@ -2131,7 +2131,7 @@
         <v>44795</v>
       </c>
       <c r="B154" t="n">
-        <v>0.007304785</v>
+        <v>0.004461027</v>
       </c>
       <c r="C154" t="n">
         <v>0.005882906</v>
@@ -2142,7 +2142,7 @@
         <v>44796</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.004858233</v>
+        <v>0.008879094000000001</v>
       </c>
       <c r="C155" t="n">
         <v>0.0020104305</v>
@@ -2153,7 +2153,7 @@
         <v>44797</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.018904409</v>
+        <v>-0.034029681</v>
       </c>
       <c r="C156" t="n">
         <v>-0.026467045</v>
@@ -2164,7 +2164,7 @@
         <v>44798</v>
       </c>
       <c r="B157" t="n">
-        <v>0.008284328000000001</v>
+        <v>-0.010101314</v>
       </c>
       <c r="C157" t="n">
         <v>-0.0009084929999999998</v>
@@ -2175,7 +2175,7 @@
         <v>44799</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.002112146</v>
+        <v>-0.006709446</v>
       </c>
       <c r="C158" t="n">
         <v>-0.004410796</v>
@@ -2186,7 +2186,7 @@
         <v>44802</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.004388265</v>
+        <v>0.011259051</v>
       </c>
       <c r="C159" t="n">
         <v>0.003435393000000001</v>
@@ -2197,7 +2197,7 @@
         <v>44803</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.003356579</v>
+        <v>-0.009110620999999999</v>
       </c>
       <c r="C160" t="n">
         <v>-0.0062336</v>
@@ -2208,7 +2208,7 @@
         <v>44804</v>
       </c>
       <c r="B161" t="n">
-        <v>0.000747462</v>
+        <v>-0.036599976</v>
       </c>
       <c r="C161" t="n">
         <v>-0.017926257</v>
@@ -2219,7 +2219,7 @@
         <v>44805</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.008605559</v>
+        <v>-0.003598582</v>
       </c>
       <c r="C162" t="n">
         <v>-0.0061020705</v>
@@ -2230,7 +2230,7 @@
         <v>44806</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.004977175</v>
+        <v>0.018191035</v>
       </c>
       <c r="C163" t="n">
         <v>0.00660693</v>
@@ -2241,7 +2241,7 @@
         <v>44809</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.002034664</v>
+        <v>0.004900578</v>
       </c>
       <c r="C164" t="n">
         <v>0.001432957</v>
@@ -2252,7 +2252,7 @@
         <v>44810</v>
       </c>
       <c r="B165" t="n">
-        <v>0.009178054</v>
+        <v>0.017452596</v>
       </c>
       <c r="C165" t="n">
         <v>0.013315325</v>
@@ -2263,7 +2263,7 @@
         <v>44811</v>
       </c>
       <c r="B166" t="n">
-        <v>0.000666983</v>
+        <v>0.007341354</v>
       </c>
       <c r="C166" t="n">
         <v>0.0040041685</v>
@@ -2274,7 +2274,7 @@
         <v>44812</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.004266134</v>
+        <v>-0.012207532</v>
       </c>
       <c r="C167" t="n">
         <v>-0.008236833000000001</v>
@@ -2285,7 +2285,7 @@
         <v>44813</v>
       </c>
       <c r="B168" t="n">
-        <v>0.013894971</v>
+        <v>-0.006040684</v>
       </c>
       <c r="C168" t="n">
         <v>0.003927143500000001</v>
@@ -2296,7 +2296,7 @@
         <v>44817</v>
       </c>
       <c r="B169" t="n">
-        <v>0.004232535</v>
+        <v>0.001810556</v>
       </c>
       <c r="C169" t="n">
         <v>0.0030215455</v>
@@ -2307,7 +2307,7 @@
         <v>44818</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.011129707</v>
+        <v>-0.010429941</v>
       </c>
       <c r="C170" t="n">
         <v>-0.010779824</v>
@@ -2318,7 +2318,7 @@
         <v>44819</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.009406401999999999</v>
+        <v>-0.02994386</v>
       </c>
       <c r="C171" t="n">
         <v>-0.019675131</v>
@@ -2329,7 +2329,7 @@
         <v>44820</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.023450017</v>
+        <v>-0.02311531</v>
       </c>
       <c r="C172" t="n">
         <v>-0.0232826635</v>
@@ -2340,7 +2340,7 @@
         <v>44823</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.001190663</v>
+        <v>-0.01220658</v>
       </c>
       <c r="C173" t="n">
         <v>-0.0066986215</v>
@@ -2351,7 +2351,7 @@
         <v>44824</v>
       </c>
       <c r="B174" t="n">
-        <v>0.001231161</v>
+        <v>0.020519393</v>
       </c>
       <c r="C174" t="n">
         <v>0.010875277</v>
@@ -2362,7 +2362,7 @@
         <v>44825</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.007399571</v>
+        <v>0.002764637</v>
       </c>
       <c r="C175" t="n">
         <v>-0.002317467</v>
@@ -2571,7 +2571,7 @@
         <v>44859</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.001629092</v>
+        <v>0.000398831</v>
       </c>
       <c r="C194" t="n">
         <v>-0.0006151304999999999</v>
@@ -2582,7 +2582,7 @@
         <v>44860</v>
       </c>
       <c r="B195" t="n">
-        <v>0.008118228</v>
+        <v>0.018888508</v>
       </c>
       <c r="C195" t="n">
         <v>0.013503368</v>
@@ -2593,7 +2593,7 @@
         <v>44861</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.007043638</v>
+        <v>-0.006222099</v>
       </c>
       <c r="C196" t="n">
         <v>-0.0066328685</v>
@@ -2604,7 +2604,7 @@
         <v>44862</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.024734706</v>
+        <v>-0.038889747</v>
       </c>
       <c r="C197" t="n">
         <v>-0.0318122265</v>
@@ -2615,7 +2615,7 @@
         <v>44865</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.009212952</v>
+        <v>0.012689596</v>
       </c>
       <c r="C198" t="n">
         <v>0.001738322</v>
@@ -2626,7 +2626,7 @@
         <v>44866</v>
       </c>
       <c r="B199" t="n">
-        <v>0.035759591</v>
+        <v>0.026332305</v>
       </c>
       <c r="C199" t="n">
         <v>0.031045948</v>
@@ -2703,7 +2703,7 @@
         <v>44875</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.007695159</v>
+        <v>-0.004334063</v>
       </c>
       <c r="C206" t="n">
         <v>-0.006014611</v>
@@ -2714,7 +2714,7 @@
         <v>44876</v>
       </c>
       <c r="B207" t="n">
-        <v>0.027878156</v>
+        <v>-0.000469358</v>
       </c>
       <c r="C207" t="n">
         <v>0.013704399</v>
@@ -3099,7 +3099,7 @@
         <v>44925</v>
       </c>
       <c r="B242" t="n">
-        <v>0.003871988</v>
+        <v>0.008407589</v>
       </c>
       <c r="C242" t="n">
         <v>0.0061397885</v>
@@ -3286,7 +3286,7 @@
         <v>44958</v>
       </c>
       <c r="B259" t="n">
-        <v>0.018137119</v>
+        <v>0.009400225</v>
       </c>
       <c r="C259" t="n">
         <v>0.013768672</v>
@@ -3297,7 +3297,7 @@
         <v>44959</v>
       </c>
       <c r="B260" t="n">
-        <v>0.002943476</v>
+        <v>-0.003523388</v>
       </c>
       <c r="C260" t="n">
         <v>-0.0002899560000000001</v>
@@ -3308,7 +3308,7 @@
         <v>44960</v>
       </c>
       <c r="B261" t="n">
-        <v>0.000749722</v>
+        <v>-0.009451325</v>
       </c>
       <c r="C261" t="n">
         <v>-0.0043508015</v>
@@ -3319,7 +3319,7 @@
         <v>44963</v>
       </c>
       <c r="B262" t="n">
-        <v>0.000337803</v>
+        <v>-0.013220393</v>
       </c>
       <c r="C262" t="n">
         <v>-0.006441295000000001</v>
@@ -3638,7 +3638,7 @@
         <v>45002</v>
       </c>
       <c r="B291" t="n">
-        <v>0.004993183</v>
+        <v>0.008171889</v>
       </c>
       <c r="C291" t="n">
         <v>0.006582536</v>
@@ -3682,7 +3682,7 @@
         <v>45008</v>
       </c>
       <c r="B295" t="n">
-        <v>0.009913081000000001</v>
+        <v>-0.002117167</v>
       </c>
       <c r="C295" t="n">
         <v>0.003897957000000001</v>
@@ -4034,7 +4034,7 @@
         <v>45058</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.013256316</v>
+        <v>-0.011585552</v>
       </c>
       <c r="C327" t="n">
         <v>-0.012420934</v>
@@ -4045,7 +4045,7 @@
         <v>45061</v>
       </c>
       <c r="B328" t="n">
-        <v>0.015522776</v>
+        <v>0.008078568</v>
       </c>
       <c r="C328" t="n">
         <v>0.011800672</v>
@@ -4067,7 +4067,7 @@
         <v>45063</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.004534809</v>
+        <v>0.011717614</v>
       </c>
       <c r="C330" t="n">
         <v>0.0035914025</v>
@@ -4078,7 +4078,7 @@
         <v>45064</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.001034023</v>
+        <v>0.007991421</v>
       </c>
       <c r="C331" t="n">
         <v>0.003478699</v>
@@ -4397,7 +4397,7 @@
         <v>45107</v>
       </c>
       <c r="B360" t="n">
-        <v>0.005392188</v>
+        <v>0.011968378</v>
       </c>
       <c r="C360" t="n">
         <v>0.008680283</v>
@@ -4408,7 +4408,7 @@
         <v>45110</v>
       </c>
       <c r="B361" t="n">
-        <v>0.013124563</v>
+        <v>0.000297619</v>
       </c>
       <c r="C361" t="n">
         <v>0.006711091000000001</v>
@@ -4474,7 +4474,7 @@
         <v>45118</v>
       </c>
       <c r="B367" t="n">
-        <v>0.006544501</v>
+        <v>0.007417232</v>
       </c>
       <c r="C367" t="n">
         <v>0.0069808665</v>
@@ -4551,7 +4551,7 @@
         <v>45127</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.007055997</v>
+        <v>-0.014232081</v>
       </c>
       <c r="C374" t="n">
         <v>-0.010644039</v>
@@ -4562,7 +4562,7 @@
         <v>45128</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.000466721</v>
+        <v>-0.00555803</v>
       </c>
       <c r="C375" t="n">
         <v>-0.0030123755</v>
@@ -4573,7 +4573,7 @@
         <v>45131</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.004366665</v>
+        <v>0.001251582</v>
       </c>
       <c r="C376" t="n">
         <v>-0.0015575415</v>
@@ -4584,7 +4584,7 @@
         <v>45132</v>
       </c>
       <c r="B377" t="n">
-        <v>0.028879873</v>
+        <v>0.014716812</v>
       </c>
       <c r="C377" t="n">
         <v>0.0217983425</v>
@@ -4595,7 +4595,7 @@
         <v>45133</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.002069543</v>
+        <v>-0.009055439</v>
       </c>
       <c r="C378" t="n">
         <v>-0.005562491</v>
@@ -4650,7 +4650,7 @@
         <v>45140</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.007030013</v>
+        <v>-0.000166937</v>
       </c>
       <c r="C383" t="n">
         <v>-0.003598475</v>
@@ -4661,7 +4661,7 @@
         <v>45141</v>
       </c>
       <c r="B384" t="n">
-        <v>0.008838748</v>
+        <v>-0.002424088</v>
       </c>
       <c r="C384" t="n">
         <v>0.00320733</v>
@@ -4672,7 +4672,7 @@
         <v>45142</v>
       </c>
       <c r="B385" t="n">
-        <v>0.003893973</v>
+        <v>0.002725149</v>
       </c>
       <c r="C385" t="n">
         <v>0.003309561</v>
@@ -4782,7 +4782,7 @@
         <v>45156</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.012293334</v>
+        <v>-0.017449334</v>
       </c>
       <c r="C395" t="n">
         <v>-0.014871334</v>
@@ -4793,7 +4793,7 @@
         <v>45159</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.014389203</v>
+        <v>-0.004603343</v>
       </c>
       <c r="C396" t="n">
         <v>-0.009496273</v>
@@ -4848,7 +4848,7 @@
         <v>45166</v>
       </c>
       <c r="B401" t="n">
-        <v>0.011719041</v>
+        <v>0.008640926</v>
       </c>
       <c r="C401" t="n">
         <v>0.0101799835</v>
@@ -4859,7 +4859,7 @@
         <v>45167</v>
       </c>
       <c r="B402" t="n">
-        <v>0.009989636</v>
+        <v>0.037491722</v>
       </c>
       <c r="C402" t="n">
         <v>0.023740679</v>
@@ -4870,7 +4870,7 @@
         <v>45168</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.00042136</v>
+        <v>0.009249449999999999</v>
       </c>
       <c r="C403" t="n">
         <v>0.004414044999999999</v>
@@ -4881,7 +4881,7 @@
         <v>45169</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.00613484</v>
+        <v>-0.005723096</v>
       </c>
       <c r="C404" t="n">
         <v>-0.005928968</v>
@@ -4892,7 +4892,7 @@
         <v>45170</v>
       </c>
       <c r="B405" t="n">
-        <v>0.006964551</v>
+        <v>-0.000685579</v>
       </c>
       <c r="C405" t="n">
         <v>0.003139486</v>
@@ -4903,7 +4903,7 @@
         <v>45173</v>
       </c>
       <c r="B406" t="n">
-        <v>0.015155119</v>
+        <v>0.013568028</v>
       </c>
       <c r="C406" t="n">
         <v>0.0143615735</v>
@@ -4914,7 +4914,7 @@
         <v>45174</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.007439506</v>
+        <v>-0.004076071</v>
       </c>
       <c r="C407" t="n">
         <v>-0.0057577885</v>
@@ -4925,7 +4925,7 @@
         <v>45175</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.002169741</v>
+        <v>0.00631902</v>
       </c>
       <c r="C408" t="n">
         <v>0.0020746395</v>
@@ -4969,7 +4969,7 @@
         <v>45181</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.001839982</v>
+        <v>8e-07</v>
       </c>
       <c r="C412" t="n">
         <v>-0.000919591</v>
@@ -4980,7 +4980,7 @@
         <v>45182</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.006369587</v>
+        <v>-0.012834271</v>
       </c>
       <c r="C413" t="n">
         <v>-0.009601929</v>
@@ -4991,7 +4991,7 @@
         <v>45183</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.000841288</v>
+        <v>-0.009088746</v>
       </c>
       <c r="C414" t="n">
         <v>-0.004965017</v>
@@ -5002,7 +5002,7 @@
         <v>45184</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.006624092</v>
+        <v>0.001488315</v>
       </c>
       <c r="C415" t="n">
         <v>-0.0025678885</v>
@@ -5035,7 +5035,7 @@
         <v>45189</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.003981264</v>
+        <v>-0.008652366</v>
       </c>
       <c r="C418" t="n">
         <v>-0.006316815</v>
@@ -5046,7 +5046,7 @@
         <v>45190</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.008971339</v>
+        <v>-0.006601319</v>
       </c>
       <c r="C419" t="n">
         <v>-0.007786329</v>
@@ -5090,7 +5090,7 @@
         <v>45196</v>
       </c>
       <c r="B423" t="n">
-        <v>0.002058603</v>
+        <v>0.004049838</v>
       </c>
       <c r="C423" t="n">
         <v>0.0030542205</v>
@@ -5101,7 +5101,7 @@
         <v>45197</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.002966576</v>
+        <v>0.01346497</v>
       </c>
       <c r="C424" t="n">
         <v>0.005249197</v>
@@ -5189,7 +5189,7 @@
         <v>45217</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.007920285000000001</v>
+        <v>-0.01919944</v>
       </c>
       <c r="C432" t="n">
         <v>-0.0135598625</v>
@@ -5200,7 +5200,7 @@
         <v>45218</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.021335151</v>
+        <v>-0.009514036</v>
       </c>
       <c r="C433" t="n">
         <v>-0.0154245935</v>
@@ -5211,7 +5211,7 @@
         <v>45219</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.00649648</v>
+        <v>-0.013376781</v>
       </c>
       <c r="C434" t="n">
         <v>-0.0099366305</v>
@@ -5222,7 +5222,7 @@
         <v>45222</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.010352992</v>
+        <v>-0.024240485</v>
       </c>
       <c r="C435" t="n">
         <v>-0.0172967385</v>
@@ -5233,7 +5233,7 @@
         <v>45223</v>
       </c>
       <c r="B436" t="n">
-        <v>0.003709124</v>
+        <v>0.026048659</v>
       </c>
       <c r="C436" t="n">
         <v>0.0148788915</v>
@@ -5244,7 +5244,7 @@
         <v>45224</v>
       </c>
       <c r="B437" t="n">
-        <v>0.004968957</v>
+        <v>0.017710201</v>
       </c>
       <c r="C437" t="n">
         <v>0.011339579</v>
@@ -5255,7 +5255,7 @@
         <v>45225</v>
       </c>
       <c r="B438" t="n">
-        <v>0.002764251</v>
+        <v>0.004875411</v>
       </c>
       <c r="C438" t="n">
         <v>0.003819831</v>
@@ -5266,7 +5266,7 @@
         <v>45226</v>
       </c>
       <c r="B439" t="n">
-        <v>0.013727465</v>
+        <v>0.011452652</v>
       </c>
       <c r="C439" t="n">
         <v>0.0125900585</v>
@@ -5277,7 +5277,7 @@
         <v>45229</v>
       </c>
       <c r="B440" t="n">
-        <v>0.006003478</v>
+        <v>0.014447337</v>
       </c>
       <c r="C440" t="n">
         <v>0.0102254075</v>
@@ -5288,7 +5288,7 @@
         <v>45230</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.003143671</v>
+        <v>-0.006006513</v>
       </c>
       <c r="C441" t="n">
         <v>-0.004575091999999999</v>
@@ -5299,7 +5299,7 @@
         <v>45231</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.000413939</v>
+        <v>0.002875902</v>
       </c>
       <c r="C442" t="n">
         <v>0.0012309815</v>
@@ -5574,7 +5574,7 @@
         <v>45266</v>
       </c>
       <c r="B467" t="n">
-        <v>0.001573511</v>
+        <v>0.005011684</v>
       </c>
       <c r="C467" t="n">
         <v>0.0032925975</v>
@@ -5585,7 +5585,7 @@
         <v>45267</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.002446083</v>
+        <v>-0.00302078</v>
       </c>
       <c r="C468" t="n">
         <v>-0.0027334315</v>
@@ -5596,7 +5596,7 @@
         <v>45268</v>
       </c>
       <c r="B469" t="n">
-        <v>0.00241192</v>
+        <v>-0.010188283</v>
       </c>
       <c r="C469" t="n">
         <v>-0.0038881815</v>
@@ -5673,7 +5673,7 @@
         <v>45279</v>
       </c>
       <c r="B476" t="n">
-        <v>0.001404322</v>
+        <v>0.002458766</v>
       </c>
       <c r="C476" t="n">
         <v>0.001931544</v>
@@ -5684,7 +5684,7 @@
         <v>45280</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.010959373</v>
+        <v>-0.01230978</v>
       </c>
       <c r="C477" t="n">
         <v>-0.0116345765</v>
@@ -5695,7 +5695,7 @@
         <v>45281</v>
       </c>
       <c r="B478" t="n">
-        <v>0.010119053</v>
+        <v>0.007302726</v>
       </c>
       <c r="C478" t="n">
         <v>0.008710889499999999</v>
@@ -5706,7 +5706,7 @@
         <v>45282</v>
       </c>
       <c r="B479" t="n">
-        <v>0.001908901</v>
+        <v>-0.018074293</v>
       </c>
       <c r="C479" t="n">
         <v>-0.008082696</v>
@@ -5717,7 +5717,7 @@
         <v>45285</v>
       </c>
       <c r="B480" t="n">
-        <v>0.003063231</v>
+        <v>-0.002522874</v>
       </c>
       <c r="C480" t="n">
         <v>0.0002701785</v>
@@ -5860,7 +5860,7 @@
         <v>45303</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.009883352999999999</v>
+        <v>-0.003490942</v>
       </c>
       <c r="C493" t="n">
         <v>-0.0066871475</v>
@@ -5926,7 +5926,7 @@
         <v>45313</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.015559077</v>
+        <v>-0.061842711</v>
       </c>
       <c r="C499" t="n">
         <v>-0.038700894</v>
@@ -5937,7 +5937,7 @@
         <v>45314</v>
       </c>
       <c r="B500" t="n">
-        <v>0.004048369</v>
+        <v>0.002516674</v>
       </c>
       <c r="C500" t="n">
         <v>0.0032825215</v>
@@ -5948,7 +5948,7 @@
         <v>45315</v>
       </c>
       <c r="B501" t="n">
-        <v>0.013978013</v>
+        <v>0.014341147</v>
       </c>
       <c r="C501" t="n">
         <v>0.01415958</v>
@@ -5959,7 +5959,7 @@
         <v>45316</v>
       </c>
       <c r="B502" t="n">
-        <v>0.020081725</v>
+        <v>0.037233436</v>
       </c>
       <c r="C502" t="n">
         <v>0.0286575805</v>
@@ -6179,7 +6179,7 @@
         <v>45352</v>
       </c>
       <c r="B522" t="n">
-        <v>0.006177671</v>
+        <v>0.015307497</v>
       </c>
       <c r="C522" t="n">
         <v>0.010742584</v>
@@ -6190,7 +6190,7 @@
         <v>45355</v>
       </c>
       <c r="B523" t="n">
-        <v>0.0008663</v>
+        <v>0.00775635</v>
       </c>
       <c r="C523" t="n">
         <v>0.004311325</v>
@@ -6201,7 +6201,7 @@
         <v>45356</v>
       </c>
       <c r="B524" t="n">
-        <v>0.006960354</v>
+        <v>-0.016622534</v>
       </c>
       <c r="C524" t="n">
         <v>-0.004831090000000001</v>
@@ -6300,7 +6300,7 @@
         <v>45369</v>
       </c>
       <c r="B533" t="n">
-        <v>0.009393576000000001</v>
+        <v>0.021668003</v>
       </c>
       <c r="C533" t="n">
         <v>0.0155307895</v>
@@ -6311,7 +6311,7 @@
         <v>45370</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.007186763</v>
+        <v>-0.002329624</v>
       </c>
       <c r="C534" t="n">
         <v>-0.0047581935</v>
@@ -6322,7 +6322,7 @@
         <v>45371</v>
       </c>
       <c r="B535" t="n">
-        <v>0.002167217</v>
+        <v>0.012782727</v>
       </c>
       <c r="C535" t="n">
         <v>0.007474972</v>
@@ -6333,7 +6333,7 @@
         <v>45372</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.001197529</v>
+        <v>0.002669632</v>
       </c>
       <c r="C536" t="n">
         <v>0.0007360515</v>
@@ -6344,7 +6344,7 @@
         <v>45373</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.01007735</v>
+        <v>-0.01160324</v>
       </c>
       <c r="C537" t="n">
         <v>-0.010840295</v>
@@ -6355,7 +6355,7 @@
         <v>45376</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.005427049</v>
+        <v>-0.027933278</v>
       </c>
       <c r="C538" t="n">
         <v>-0.0166801635</v>
@@ -6366,7 +6366,7 @@
         <v>45377</v>
       </c>
       <c r="B539" t="n">
-        <v>0.005100541</v>
+        <v>-0.001809771</v>
       </c>
       <c r="C539" t="n">
         <v>0.001645385</v>
@@ -6377,7 +6377,7 @@
         <v>45378</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.011558416</v>
+        <v>-0.036117794</v>
       </c>
       <c r="C540" t="n">
         <v>-0.023838105</v>
@@ -6388,7 +6388,7 @@
         <v>45379</v>
       </c>
       <c r="B541" t="n">
-        <v>0.00518964</v>
+        <v>0.026927278</v>
       </c>
       <c r="C541" t="n">
         <v>0.016058459</v>
@@ -6454,7 +6454,7 @@
         <v>45391</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.000825866</v>
+        <v>0.013624573</v>
       </c>
       <c r="C547" t="n">
         <v>0.0063993535</v>
@@ -6465,7 +6465,7 @@
         <v>45392</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.008144504</v>
+        <v>-0.023377651</v>
       </c>
       <c r="C548" t="n">
         <v>-0.0157610775</v>
@@ -6476,7 +6476,7 @@
         <v>45393</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.000132365</v>
+        <v>0.002252782</v>
       </c>
       <c r="C549" t="n">
         <v>0.0010602085</v>
@@ -6553,7 +6553,7 @@
         <v>45404</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.003037388</v>
+        <v>-0.008043847</v>
       </c>
       <c r="C556" t="n">
         <v>-0.0055406175</v>
@@ -6630,7 +6630,7 @@
         <v>45418</v>
       </c>
       <c r="B563" t="n">
-        <v>0.020481984</v>
+        <v>0.01483811</v>
       </c>
       <c r="C563" t="n">
         <v>0.017660047</v>
@@ -6641,7 +6641,7 @@
         <v>45419</v>
       </c>
       <c r="B564" t="n">
-        <v>0.006457557</v>
+        <v>0.000309168</v>
       </c>
       <c r="C564" t="n">
         <v>0.0033833625</v>
@@ -6652,7 +6652,7 @@
         <v>45420</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.01329042</v>
+        <v>-0.007866695999999999</v>
       </c>
       <c r="C565" t="n">
         <v>-0.010578558</v>
@@ -6663,7 +6663,7 @@
         <v>45421</v>
       </c>
       <c r="B566" t="n">
-        <v>0.01165212</v>
+        <v>0.00945884</v>
       </c>
       <c r="C566" t="n">
         <v>0.01055548</v>
@@ -6674,7 +6674,7 @@
         <v>45422</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.011246046</v>
+        <v>0.000468296</v>
       </c>
       <c r="C567" t="n">
         <v>-0.005388875</v>
@@ -6740,7 +6740,7 @@
         <v>45432</v>
       </c>
       <c r="B573" t="n">
-        <v>0.003532574</v>
+        <v>0.004833933</v>
       </c>
       <c r="C573" t="n">
         <v>0.0041832535</v>
@@ -6751,7 +6751,7 @@
         <v>45433</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.00401012</v>
+        <v>-0.009943469</v>
       </c>
       <c r="C574" t="n">
         <v>-0.006976794499999999</v>
@@ -6762,7 +6762,7 @@
         <v>45434</v>
       </c>
       <c r="B575" t="n">
-        <v>0.002255043</v>
+        <v>0.003934004</v>
       </c>
       <c r="C575" t="n">
         <v>0.0030945235</v>
@@ -6773,7 +6773,7 @@
         <v>45435</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.011578197</v>
+        <v>-0.021808489</v>
       </c>
       <c r="C576" t="n">
         <v>-0.016693343</v>
@@ -6784,7 +6784,7 @@
         <v>45436</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.011070457</v>
+        <v>-0.010151384</v>
       </c>
       <c r="C577" t="n">
         <v>-0.0106109205</v>
@@ -6795,7 +6795,7 @@
         <v>45439</v>
       </c>
       <c r="B578" t="n">
-        <v>0.009505131999999999</v>
+        <v>0.005648445</v>
       </c>
       <c r="C578" t="n">
         <v>0.0075767885</v>
@@ -6806,7 +6806,7 @@
         <v>45440</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.007298579</v>
+        <v>-0.008349176</v>
       </c>
       <c r="C579" t="n">
         <v>-0.0078238775</v>
@@ -6817,7 +6817,7 @@
         <v>45441</v>
       </c>
       <c r="B580" t="n">
-        <v>0.001205235</v>
+        <v>0.001651209</v>
       </c>
       <c r="C580" t="n">
         <v>0.001428222</v>
@@ -6828,7 +6828,7 @@
         <v>45442</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.005316198</v>
+        <v>-0.007420265</v>
       </c>
       <c r="C581" t="n">
         <v>-0.0063682315</v>
@@ -6839,7 +6839,7 @@
         <v>45443</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.004002824</v>
+        <v>0.008719329</v>
       </c>
       <c r="C582" t="n">
         <v>0.0023582525</v>
@@ -6850,7 +6850,7 @@
         <v>45446</v>
       </c>
       <c r="B583" t="n">
-        <v>0.002464745</v>
+        <v>-0.019010275</v>
       </c>
       <c r="C583" t="n">
         <v>-0.008272765</v>
@@ -6861,7 +6861,7 @@
         <v>45447</v>
       </c>
       <c r="B584" t="n">
-        <v>0.007502087</v>
+        <v>-0.009916019999999999</v>
       </c>
       <c r="C584" t="n">
         <v>-0.0012069665</v>
@@ -6872,7 +6872,7 @@
         <v>45448</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.005774253</v>
+        <v>-0.021899508</v>
       </c>
       <c r="C585" t="n">
         <v>-0.0138368805</v>
@@ -6883,7 +6883,7 @@
         <v>45449</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.0007088590000000001</v>
+        <v>-0.03920595</v>
       </c>
       <c r="C586" t="n">
         <v>-0.0199574045</v>
@@ -6938,7 +6938,7 @@
         <v>45457</v>
       </c>
       <c r="B591" t="n">
-        <v>0.001832269</v>
+        <v>0.004368103</v>
       </c>
       <c r="C591" t="n">
         <v>0.003100186</v>
@@ -6949,7 +6949,7 @@
         <v>45460</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.004329087</v>
+        <v>-0.001506269</v>
       </c>
       <c r="C592" t="n">
         <v>-0.002917678</v>
@@ -6960,7 +6960,7 @@
         <v>45461</v>
       </c>
       <c r="B593" t="n">
-        <v>0.015213008</v>
+        <v>0.002655846</v>
       </c>
       <c r="C593" t="n">
         <v>0.008934427</v>
@@ -6971,7 +6971,7 @@
         <v>45462</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.005540229</v>
+        <v>-0.0047499</v>
       </c>
       <c r="C594" t="n">
         <v>-0.005145064499999999</v>
@@ -6982,7 +6982,7 @@
         <v>45463</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.023386868</v>
+        <v>-0.00721709</v>
       </c>
       <c r="C595" t="n">
         <v>-0.015301979</v>
@@ -6993,7 +6993,7 @@
         <v>45464</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.001147864</v>
+        <v>-0.002187064</v>
       </c>
       <c r="C596" t="n">
         <v>-0.001667464</v>
@@ -7092,7 +7092,7 @@
         <v>45477</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.027502791</v>
+        <v>-0.005082066</v>
       </c>
       <c r="C605" t="n">
         <v>-0.0162924285</v>
@@ -7103,7 +7103,7 @@
         <v>45478</v>
       </c>
       <c r="B606" t="n">
-        <v>0.01057563</v>
+        <v>-0.004281225</v>
       </c>
       <c r="C606" t="n">
         <v>0.003147202500000001</v>
@@ -7114,7 +7114,7 @@
         <v>45481</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.028649921</v>
+        <v>-0.008539662999999999</v>
       </c>
       <c r="C607" t="n">
         <v>-0.018594792</v>
@@ -7125,7 +7125,7 @@
         <v>45482</v>
       </c>
       <c r="B608" t="n">
-        <v>0.020455617</v>
+        <v>0.011185591</v>
       </c>
       <c r="C608" t="n">
         <v>0.015820604</v>
@@ -7433,7 +7433,7 @@
         <v>45520</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.002023721</v>
+        <v>0.001101452</v>
       </c>
       <c r="C636" t="n">
         <v>-0.0004611345</v>
@@ -7444,7 +7444,7 @@
         <v>45523</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.005521175</v>
+        <v>0.003387609</v>
       </c>
       <c r="C637" t="n">
         <v>-0.001066783</v>
@@ -7455,7 +7455,7 @@
         <v>45524</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.017298283</v>
+        <v>-0.007228041</v>
       </c>
       <c r="C638" t="n">
         <v>-0.012263162</v>
@@ -7466,7 +7466,7 @@
         <v>45525</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.001631089</v>
+        <v>-0.003321148</v>
       </c>
       <c r="C639" t="n">
         <v>-0.0024761185</v>
@@ -7477,7 +7477,7 @@
         <v>45526</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.01760979</v>
+        <v>-0.00255877</v>
       </c>
       <c r="C640" t="n">
         <v>-0.01008428</v>
@@ -7488,7 +7488,7 @@
         <v>45527</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.005204224</v>
+        <v>0.004242144</v>
       </c>
       <c r="C641" t="n">
         <v>-0.0004810400000000003</v>
@@ -7664,7 +7664,7 @@
         <v>45553</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.006389183</v>
+        <v>0.003723419</v>
       </c>
       <c r="C657" t="n">
         <v>-0.001332882</v>
@@ -7675,7 +7675,7 @@
         <v>45554</v>
       </c>
       <c r="B658" t="n">
-        <v>0.024036421</v>
+        <v>0.007891965000000001</v>
       </c>
       <c r="C658" t="n">
         <v>0.015964193</v>
@@ -7686,7 +7686,7 @@
         <v>45555</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.001229497</v>
+        <v>0.001568819</v>
       </c>
       <c r="C659" t="n">
         <v>0.000169661</v>
@@ -7697,7 +7697,7 @@
         <v>45558</v>
       </c>
       <c r="B660" t="n">
-        <v>0.003539662</v>
+        <v>0.003659487</v>
       </c>
       <c r="C660" t="n">
         <v>0.0035995745</v>
@@ -8016,7 +8016,7 @@
         <v>45614</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.004648775</v>
+        <v>-0.029530019</v>
       </c>
       <c r="C689" t="n">
         <v>-0.017089397</v>
@@ -8027,7 +8027,7 @@
         <v>45615</v>
       </c>
       <c r="B690" t="n">
-        <v>0.006710898</v>
+        <v>0.031181766</v>
       </c>
       <c r="C690" t="n">
         <v>0.018946332</v>
@@ -8038,7 +8038,7 @@
         <v>45616</v>
       </c>
       <c r="B691" t="n">
-        <v>0.002233277</v>
+        <v>0.027421543</v>
       </c>
       <c r="C691" t="n">
         <v>0.01482741</v>
@@ -8049,7 +8049,7 @@
         <v>45617</v>
       </c>
       <c r="B692" t="n">
-        <v>0.000884446</v>
+        <v>0.003629941</v>
       </c>
       <c r="C692" t="n">
         <v>0.0022571935</v>
@@ -8060,7 +8060,7 @@
         <v>45618</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.030982645</v>
+        <v>-0.033716816</v>
       </c>
       <c r="C693" t="n">
         <v>-0.0323497305</v>
@@ -8071,7 +8071,7 @@
         <v>45621</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.004554933</v>
+        <v>0.01548346</v>
       </c>
       <c r="C694" t="n">
         <v>0.0054642635</v>
@@ -8082,7 +8082,7 @@
         <v>45622</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.002054577</v>
+        <v>-0.012554478</v>
       </c>
       <c r="C695" t="n">
         <v>-0.0073045275</v>
@@ -8159,7 +8159,7 @@
         <v>45631</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.002281789</v>
+        <v>0.017034949</v>
       </c>
       <c r="C702" t="n">
         <v>0.007376580000000001</v>
@@ -8170,7 +8170,7 @@
         <v>45632</v>
       </c>
       <c r="B703" t="n">
-        <v>0.013145797</v>
+        <v>0.009127021000000001</v>
       </c>
       <c r="C703" t="n">
         <v>0.011136409</v>
@@ -8181,7 +8181,7 @@
         <v>45635</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.001653528</v>
+        <v>-0.001542552</v>
       </c>
       <c r="C704" t="n">
         <v>-0.00159804</v>
@@ -8192,7 +8192,7 @@
         <v>45636</v>
       </c>
       <c r="B705" t="n">
-        <v>0.007327765</v>
+        <v>0.009997038999999999</v>
       </c>
       <c r="C705" t="n">
         <v>0.008662402</v>
@@ -8203,7 +8203,7 @@
         <v>45637</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.001703383</v>
+        <v>0.016668111</v>
       </c>
       <c r="C706" t="n">
         <v>0.007482364</v>
@@ -8214,7 +8214,7 @@
         <v>45638</v>
       </c>
       <c r="B707" t="n">
-        <v>0.009946273</v>
+        <v>0.010703985</v>
       </c>
       <c r="C707" t="n">
         <v>0.010325129</v>
@@ -8258,7 +8258,7 @@
         <v>45644</v>
       </c>
       <c r="B711" t="n">
-        <v>0.005062833</v>
+        <v>0.008361598</v>
       </c>
       <c r="C711" t="n">
         <v>0.0067122155</v>
@@ -8269,7 +8269,7 @@
         <v>45645</v>
       </c>
       <c r="B712" t="n">
-        <v>0.000906545</v>
+        <v>0.00163304</v>
       </c>
       <c r="C712" t="n">
         <v>0.0012697925</v>
@@ -8280,7 +8280,7 @@
         <v>45646</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.004491082</v>
+        <v>0.013338722</v>
       </c>
       <c r="C713" t="n">
         <v>0.00442382</v>
@@ -8291,7 +8291,7 @@
         <v>45649</v>
       </c>
       <c r="B714" t="n">
-        <v>0.001483727</v>
+        <v>-0.048770314</v>
       </c>
       <c r="C714" t="n">
         <v>-0.0236432935</v>
@@ -8302,7 +8302,7 @@
         <v>45650</v>
       </c>
       <c r="B715" t="n">
-        <v>0.012740685</v>
+        <v>0.010034758</v>
       </c>
       <c r="C715" t="n">
         <v>0.0113877215</v>
@@ -8313,7 +8313,7 @@
         <v>45651</v>
       </c>
       <c r="B716" t="n">
-        <v>0.000487212</v>
+        <v>-0.023305961</v>
       </c>
       <c r="C716" t="n">
         <v>-0.0114093745</v>
@@ -8368,7 +8368,7 @@
         <v>45659</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.014611001</v>
+        <v>-0.029102489</v>
       </c>
       <c r="C721" t="n">
         <v>-0.021856745</v>
@@ -8379,7 +8379,7 @@
         <v>45660</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.044400048</v>
+        <v>-0.011839194</v>
       </c>
       <c r="C722" t="n">
         <v>-0.028119621</v>
@@ -8390,7 +8390,7 @@
         <v>45663</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.008410602</v>
+        <v>-0.001641015</v>
       </c>
       <c r="C723" t="n">
         <v>-0.005025808499999999</v>
@@ -8401,7 +8401,7 @@
         <v>45664</v>
       </c>
       <c r="B724" t="n">
-        <v>0.029299419</v>
+        <v>0.007199793</v>
       </c>
       <c r="C724" t="n">
         <v>0.018249606</v>
@@ -8412,7 +8412,7 @@
         <v>45665</v>
       </c>
       <c r="B725" t="n">
-        <v>0.003240295</v>
+        <v>-0.001815071</v>
       </c>
       <c r="C725" t="n">
         <v>0.0007126119999999999</v>
@@ -8423,7 +8423,7 @@
         <v>45666</v>
       </c>
       <c r="B726" t="n">
-        <v>0.005411965</v>
+        <v>-0.002464363</v>
       </c>
       <c r="C726" t="n">
         <v>0.001473801</v>
@@ -8434,7 +8434,7 @@
         <v>45667</v>
       </c>
       <c r="B727" t="n">
-        <v>-0.030473492</v>
+        <v>-0.012539217</v>
       </c>
       <c r="C727" t="n">
         <v>-0.0215063545</v>
@@ -8599,7 +8599,7 @@
         <v>45698</v>
       </c>
       <c r="B742" t="n">
-        <v>0.02208964</v>
+        <v>0.002147351</v>
       </c>
       <c r="C742" t="n">
         <v>0.0121184955</v>
@@ -8698,7 +8698,7 @@
         <v>45709</v>
       </c>
       <c r="B751" t="n">
-        <v>0.012846586</v>
+        <v>0.012611202</v>
       </c>
       <c r="C751" t="n">
         <v>0.012728894</v>
@@ -8786,7 +8786,7 @@
         <v>45721</v>
       </c>
       <c r="B759" t="n">
-        <v>0.007325909</v>
+        <v>0.004465589</v>
       </c>
       <c r="C759" t="n">
         <v>0.005895749</v>
@@ -8797,7 +8797,7 @@
         <v>45722</v>
       </c>
       <c r="B760" t="n">
-        <v>0.020611235</v>
+        <v>0.013751526</v>
       </c>
       <c r="C760" t="n">
         <v>0.0171813805</v>
@@ -8808,7 +8808,7 @@
         <v>45723</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.005782212</v>
+        <v>-0.003089451</v>
       </c>
       <c r="C761" t="n">
         <v>-0.0044358315</v>
@@ -8830,7 +8830,7 @@
         <v>45727</v>
       </c>
       <c r="B763" t="n">
-        <v>0.002902758</v>
+        <v>0.003210623</v>
       </c>
       <c r="C763" t="n">
         <v>0.0030566905</v>
@@ -9017,7 +9017,7 @@
         <v>45750</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.005890867</v>
+        <v>-0.010250258</v>
       </c>
       <c r="C780" t="n">
         <v>-0.0080705625</v>
@@ -9028,7 +9028,7 @@
         <v>45754</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.07045514999999999</v>
+        <v>-0.128314646</v>
       </c>
       <c r="C781" t="n">
         <v>-0.099384898</v>
@@ -9039,7 +9039,7 @@
         <v>45755</v>
       </c>
       <c r="B782" t="n">
-        <v>0.017082996</v>
+        <v>-0.005176583</v>
       </c>
       <c r="C782" t="n">
         <v>0.0059532065</v>
@@ -9050,7 +9050,7 @@
         <v>45756</v>
       </c>
       <c r="B783" t="n">
-        <v>0.009870632000000001</v>
+        <v>0.029875151</v>
       </c>
       <c r="C783" t="n">
         <v>0.0198728915</v>
@@ -9061,7 +9061,7 @@
         <v>45757</v>
       </c>
       <c r="B784" t="n">
-        <v>0.013106454</v>
+        <v>0.031231935</v>
       </c>
       <c r="C784" t="n">
         <v>0.0221691945</v>
@@ -9072,7 +9072,7 @@
         <v>45758</v>
       </c>
       <c r="B785" t="n">
-        <v>0.004123461</v>
+        <v>0.009704387</v>
       </c>
       <c r="C785" t="n">
         <v>0.006913924</v>
@@ -9083,7 +9083,7 @@
         <v>45761</v>
       </c>
       <c r="B786" t="n">
-        <v>0.021819818</v>
+        <v>0.002299816</v>
       </c>
       <c r="C786" t="n">
         <v>0.012059817</v>
@@ -9094,7 +9094,7 @@
         <v>45762</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.00049717</v>
+        <v>0.00055667</v>
       </c>
       <c r="C787" t="n">
         <v>2.974999999999999e-05</v>
@@ -9160,7 +9160,7 @@
         <v>45770</v>
       </c>
       <c r="B793" t="n">
-        <v>0.0117</v>
+        <v>0.0008</v>
       </c>
       <c r="C793" t="n">
         <v>0.00625</v>
@@ -9171,7 +9171,7 @@
         <v>45771</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.010266296</v>
+        <v>-0.0006667753999999</v>
       </c>
       <c r="C794" t="n">
         <v>-0.00546653569999995</v>
